--- a/data/库存周期数据.xlsx
+++ b/data/库存周期数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="库存周期" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yy/m"/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.00"/>
@@ -179,6 +179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -226,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,9 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="F228" sqref="F228"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3039,11 +3044,6 @@
       </c>
       <c r="C233" s="6">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234" s="3">
-        <v>43616</v>
       </c>
     </row>
   </sheetData>
